--- a/Relationships.xlsx
+++ b/Relationships.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIT\HQT CSDL (IS210.M21)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -466,17 +466,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -507,10 +506,10 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>31</v>
@@ -578,10 +577,10 @@
         <v>26</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
       <c r="K3" t="s">
         <v>32</v>
@@ -613,10 +612,10 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
@@ -644,7 +643,7 @@
       <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -670,7 +669,7 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -696,7 +695,7 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -722,7 +721,7 @@
       <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -736,7 +735,7 @@
       <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Relationships.xlsx
+++ b/Relationships.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>NGUOI</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>MUI TIEM</t>
+  </si>
+  <si>
+    <t>Tinh trang</t>
+  </si>
+  <si>
+    <t>Chung nhan</t>
   </si>
 </sst>
 </file>
@@ -466,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,10 +752,16 @@
       <c r="H10" t="s">
         <v>28</v>
       </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Relationships.xlsx
+++ b/Relationships.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="45">
   <si>
     <t>NGUOI</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Que quan</t>
   </si>
   <si>
-    <t>Dia chi</t>
-  </si>
-  <si>
     <t>VACCINE</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Ngay tiem</t>
   </si>
   <si>
-    <t>Thoi gian</t>
-  </si>
-  <si>
     <t>LICH TIEM</t>
   </si>
   <si>
@@ -144,6 +138,27 @@
   </si>
   <si>
     <t>Chung nhan</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>nvarchar</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Gio tiem</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -470,82 +485,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -554,213 +583,367 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
+      <c r="B6" t="s">
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
     </row>
